--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34144531668272</v>
+        <v>1.3428465</v>
       </c>
       <c r="H2">
-        <v>1.34144531668272</v>
+        <v>2.685693</v>
       </c>
       <c r="I2">
-        <v>0.05931844459394673</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J2">
-        <v>0.05931844459394673</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.424317819090272</v>
+        <v>0.094498</v>
       </c>
       <c r="N2">
-        <v>0.424317819090272</v>
+        <v>0.188996</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.15909816648811</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1147023623117688</v>
       </c>
       <c r="Q2">
-        <v>0.569199151203671</v>
+        <v>0.126896308557</v>
       </c>
       <c r="R2">
-        <v>0.569199151203671</v>
+        <v>0.5075852342279999</v>
       </c>
       <c r="S2">
-        <v>0.05931844459394673</v>
+        <v>0.008914904440352232</v>
       </c>
       <c r="T2">
-        <v>0.05931844459394673</v>
+        <v>0.004417934371185243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8055762852930221</v>
+        <v>1.3428465</v>
       </c>
       <c r="H3">
-        <v>0.8055762852930221</v>
+        <v>2.685693</v>
       </c>
       <c r="I3">
-        <v>0.03562242280849815</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J3">
-        <v>0.03562242280849815</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.424317819090272</v>
+        <v>0.4597873333333333</v>
       </c>
       <c r="N3">
-        <v>0.424317819090272</v>
+        <v>1.379362</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7741044435627296</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8371398330286677</v>
       </c>
       <c r="Q3">
-        <v>0.3418203724863779</v>
+        <v>0.6174238113109999</v>
       </c>
       <c r="R3">
-        <v>0.3418203724863779</v>
+        <v>3.704542867866</v>
       </c>
       <c r="S3">
-        <v>0.03562242280849815</v>
+        <v>0.04337615758588589</v>
       </c>
       <c r="T3">
-        <v>0.03562242280849815</v>
+        <v>0.0322437024598765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.40502200638755</v>
+        <v>1.3428465</v>
       </c>
       <c r="H4">
-        <v>6.40502200638755</v>
+        <v>2.685693</v>
       </c>
       <c r="I4">
-        <v>0.2832287967939376</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J4">
-        <v>0.2832287967939376</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.424317819090272</v>
+        <v>0.039675</v>
       </c>
       <c r="N4">
-        <v>0.424317819090272</v>
+        <v>0.07935</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.06679738994916047</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04815780465956347</v>
       </c>
       <c r="Q4">
-        <v>2.717764968975563</v>
+        <v>0.0532774348875</v>
       </c>
       <c r="R4">
-        <v>2.717764968975563</v>
+        <v>0.21310973955</v>
       </c>
       <c r="S4">
-        <v>0.2832287967939376</v>
+        <v>0.003742924016074148</v>
       </c>
       <c r="T4">
-        <v>0.2832287967939376</v>
+        <v>0.001854870432990905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2642046111686</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H5">
-        <v>13.2642046111686</v>
+        <v>2.510408</v>
       </c>
       <c r="I5">
-        <v>0.5865404847482686</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J5">
-        <v>0.5865404847482686</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.424317819090272</v>
+        <v>0.094498</v>
       </c>
       <c r="N5">
-        <v>0.424317819090272</v>
+        <v>0.188996</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.15909816648811</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1147023623117688</v>
       </c>
       <c r="Q5">
-        <v>5.628238372578189</v>
+        <v>0.07907617839466667</v>
       </c>
       <c r="R5">
-        <v>5.628238372578189</v>
+        <v>0.474457070368</v>
       </c>
       <c r="S5">
-        <v>0.5865404847482686</v>
+        <v>0.005555374950722405</v>
       </c>
       <c r="T5">
-        <v>0.5865404847482686</v>
+        <v>0.004129592544232868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,114 +785,858 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.296955532361334</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H6">
-        <v>0.296955532361334</v>
+        <v>2.510408</v>
       </c>
       <c r="I6">
-        <v>0.01313131446669924</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J6">
-        <v>0.01313131446669924</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424317819090272</v>
+        <v>0.4597873333333333</v>
       </c>
       <c r="N6">
-        <v>0.424317819090272</v>
+        <v>1.379362</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7741044435627296</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8371398330286677</v>
       </c>
       <c r="Q6">
-        <v>0.1260035238583519</v>
+        <v>0.3847512666328889</v>
       </c>
       <c r="R6">
-        <v>0.1260035238583519</v>
+        <v>3.462761399696</v>
       </c>
       <c r="S6">
-        <v>0.01313131446669924</v>
+        <v>0.02703010681982109</v>
       </c>
       <c r="T6">
-        <v>0.01313131446669924</v>
+        <v>0.03013927824397414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8368026666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.510408</v>
+      </c>
+      <c r="I7">
+        <v>0.03491790680779202</v>
+      </c>
+      <c r="J7">
+        <v>0.03600268086029784</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.039675</v>
+      </c>
+      <c r="N7">
+        <v>0.07935</v>
+      </c>
+      <c r="O7">
+        <v>0.06679738994916047</v>
+      </c>
+      <c r="P7">
+        <v>0.04815780465956347</v>
+      </c>
+      <c r="Q7">
+        <v>0.0332001458</v>
+      </c>
+      <c r="R7">
+        <v>0.1992008748</v>
+      </c>
+      <c r="S7">
+        <v>0.002332425037248528</v>
+      </c>
+      <c r="T7">
+        <v>0.001733810072090828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.339706333333333</v>
+      </c>
+      <c r="H8">
+        <v>22.019119</v>
+      </c>
+      <c r="I8">
+        <v>0.3062695566743265</v>
+      </c>
+      <c r="J8">
+        <v>0.315784252672044</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.094498</v>
+      </c>
+      <c r="N8">
+        <v>0.188996</v>
+      </c>
+      <c r="O8">
+        <v>0.15909816648811</v>
+      </c>
+      <c r="P8">
+        <v>0.1147023623117688</v>
+      </c>
+      <c r="Q8">
+        <v>0.6935875690873333</v>
+      </c>
+      <c r="R8">
+        <v>4.161525414524</v>
+      </c>
+      <c r="S8">
+        <v>0.04872692491801165</v>
+      </c>
+      <c r="T8">
+        <v>0.03622119976233995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.501099874328462</v>
-      </c>
-      <c r="H7">
-        <v>0.501099874328462</v>
-      </c>
-      <c r="I7">
-        <v>0.02215853658864948</v>
-      </c>
-      <c r="J7">
-        <v>0.02215853658864948</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.424317819090272</v>
-      </c>
-      <c r="N7">
-        <v>0.424317819090272</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.2126256058214624</v>
-      </c>
-      <c r="R7">
-        <v>0.2126256058214624</v>
-      </c>
-      <c r="S7">
-        <v>0.02215853658864948</v>
-      </c>
-      <c r="T7">
-        <v>0.02215853658864948</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.339706333333333</v>
+      </c>
+      <c r="H9">
+        <v>22.019119</v>
+      </c>
+      <c r="I9">
+        <v>0.3062695566743265</v>
+      </c>
+      <c r="J9">
+        <v>0.315784252672044</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4597873333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.379362</v>
+      </c>
+      <c r="O9">
+        <v>0.7741044435627296</v>
+      </c>
+      <c r="P9">
+        <v>0.8371398330286677</v>
+      </c>
+      <c r="Q9">
+        <v>3.374704002453111</v>
+      </c>
+      <c r="R9">
+        <v>30.372336022078</v>
+      </c>
+      <c r="S9">
+        <v>0.2370846247495834</v>
+      </c>
+      <c r="T9">
+        <v>0.2643555765549576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.339706333333333</v>
+      </c>
+      <c r="H10">
+        <v>22.019119</v>
+      </c>
+      <c r="I10">
+        <v>0.3062695566743265</v>
+      </c>
+      <c r="J10">
+        <v>0.315784252672044</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.039675</v>
+      </c>
+      <c r="N10">
+        <v>0.07935</v>
+      </c>
+      <c r="O10">
+        <v>0.06679738994916047</v>
+      </c>
+      <c r="P10">
+        <v>0.04815780465956347</v>
+      </c>
+      <c r="Q10">
+        <v>0.291202848775</v>
+      </c>
+      <c r="R10">
+        <v>1.74721709265</v>
+      </c>
+      <c r="S10">
+        <v>0.02045800700673149</v>
+      </c>
+      <c r="T10">
+        <v>0.01520747635474653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H11">
+        <v>39.936332</v>
+      </c>
+      <c r="I11">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J11">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.094498</v>
+      </c>
+      <c r="N11">
+        <v>0.188996</v>
+      </c>
+      <c r="O11">
+        <v>0.15909816648811</v>
+      </c>
+      <c r="P11">
+        <v>0.1147023623117688</v>
+      </c>
+      <c r="Q11">
+        <v>1.257967833778667</v>
+      </c>
+      <c r="R11">
+        <v>7.547807002672</v>
+      </c>
+      <c r="S11">
+        <v>0.08837658994734467</v>
+      </c>
+      <c r="T11">
+        <v>0.06569481091169585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H12">
+        <v>39.936332</v>
+      </c>
+      <c r="I12">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J12">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4597873333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.379362</v>
+      </c>
+      <c r="O12">
+        <v>0.7741044435627296</v>
+      </c>
+      <c r="P12">
+        <v>0.8371398330286677</v>
+      </c>
+      <c r="Q12">
+        <v>6.120739864464889</v>
+      </c>
+      <c r="R12">
+        <v>55.086658780184</v>
+      </c>
+      <c r="S12">
+        <v>0.4300031389128138</v>
+      </c>
+      <c r="T12">
+        <v>0.4794647811000159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H13">
+        <v>39.936332</v>
+      </c>
+      <c r="I13">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J13">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.039675</v>
+      </c>
+      <c r="N13">
+        <v>0.07935</v>
+      </c>
+      <c r="O13">
+        <v>0.06679738994916047</v>
+      </c>
+      <c r="P13">
+        <v>0.04815780465956347</v>
+      </c>
+      <c r="Q13">
+        <v>0.5281579907</v>
+      </c>
+      <c r="R13">
+        <v>3.1689479442</v>
+      </c>
+      <c r="S13">
+        <v>0.03710492503715317</v>
+      </c>
+      <c r="T13">
+        <v>0.0275819765806846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.310028</v>
+      </c>
+      <c r="H14">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J14">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.094498</v>
+      </c>
+      <c r="N14">
+        <v>0.188996</v>
+      </c>
+      <c r="O14">
+        <v>0.15909816648811</v>
+      </c>
+      <c r="P14">
+        <v>0.1147023623117688</v>
+      </c>
+      <c r="Q14">
+        <v>0.029297025944</v>
+      </c>
+      <c r="R14">
+        <v>0.175782155664</v>
+      </c>
+      <c r="S14">
+        <v>0.002058217371705196</v>
+      </c>
+      <c r="T14">
+        <v>0.001529977578110922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.310028</v>
+      </c>
+      <c r="H15">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J15">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4597873333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.379362</v>
+      </c>
+      <c r="O15">
+        <v>0.7741044435627296</v>
+      </c>
+      <c r="P15">
+        <v>0.8371398330286677</v>
+      </c>
+      <c r="Q15">
+        <v>0.1425469473786667</v>
+      </c>
+      <c r="R15">
+        <v>1.282922526408</v>
+      </c>
+      <c r="S15">
+        <v>0.01001441593215385</v>
+      </c>
+      <c r="T15">
+        <v>0.01116633649441384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.310028</v>
+      </c>
+      <c r="H16">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J16">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.039675</v>
+      </c>
+      <c r="N16">
+        <v>0.07935</v>
+      </c>
+      <c r="O16">
+        <v>0.06679738994916047</v>
+      </c>
+      <c r="P16">
+        <v>0.04815780465956347</v>
+      </c>
+      <c r="Q16">
+        <v>0.0123003609</v>
+      </c>
+      <c r="R16">
+        <v>0.07380216540000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0008641428836843496</v>
+      </c>
+      <c r="T16">
+        <v>0.00064236132417142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8233635</v>
+      </c>
+      <c r="H17">
+        <v>1.646727</v>
+      </c>
+      <c r="I17">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J17">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.094498</v>
+      </c>
+      <c r="N17">
+        <v>0.188996</v>
+      </c>
+      <c r="O17">
+        <v>0.15909816648811</v>
+      </c>
+      <c r="P17">
+        <v>0.1147023623117688</v>
+      </c>
+      <c r="Q17">
+        <v>0.07780620402299999</v>
+      </c>
+      <c r="R17">
+        <v>0.311224816092</v>
+      </c>
+      <c r="S17">
+        <v>0.005466154859973909</v>
+      </c>
+      <c r="T17">
+        <v>0.002708847144204034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8233635</v>
+      </c>
+      <c r="H18">
+        <v>1.646727</v>
+      </c>
+      <c r="I18">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J18">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4597873333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.379362</v>
+      </c>
+      <c r="O18">
+        <v>0.7741044435627296</v>
+      </c>
+      <c r="P18">
+        <v>0.8371398330286677</v>
+      </c>
+      <c r="Q18">
+        <v>0.378572108029</v>
+      </c>
+      <c r="R18">
+        <v>2.271432648174</v>
+      </c>
+      <c r="S18">
+        <v>0.02659599956247163</v>
+      </c>
+      <c r="T18">
+        <v>0.01977015817542998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8233635</v>
+      </c>
+      <c r="H19">
+        <v>1.646727</v>
+      </c>
+      <c r="I19">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J19">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.039675</v>
+      </c>
+      <c r="N19">
+        <v>0.07935</v>
+      </c>
+      <c r="O19">
+        <v>0.06679738994916047</v>
+      </c>
+      <c r="P19">
+        <v>0.04815780465956347</v>
+      </c>
+      <c r="Q19">
+        <v>0.0326669468625</v>
+      </c>
+      <c r="R19">
+        <v>0.13066778745</v>
+      </c>
+      <c r="S19">
+        <v>0.002294965968268798</v>
+      </c>
+      <c r="T19">
+        <v>0.001137309894879204</v>
       </c>
     </row>
   </sheetData>
